--- a/control.xlsx
+++ b/control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phasit/Desktop/ElectronProject/mydoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342BC54-9F23-1A4D-8A12-751EBEEF1999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1CB5AA-D3FF-B240-8CC7-B631F5B1A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{AF8D7D1E-3345-6647-AE73-EF79E80350AD}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/control.xlsx
+++ b/control.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phasit/Desktop/ElectronProject/mydoc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1CB5AA-D3FF-B240-8CC7-B631F5B1A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{AF8D7D1E-3345-6647-AE73-EF79E80350AD}"/>
+    <workbookView xWindow="3540" yWindow="2250" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -46,26 +26,35 @@
   </si>
   <si>
     <t>วันที่</t>
+  </si>
+  <si>
+    <t>ค่าวัสดุการศึกษา</t>
+  </si>
+  <si>
+    <t>Created on25-12-2023</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="18"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,13 +92,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,112 +419,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FAF7E-3A6F-1A43-A77F-2D57D7427DEC}">
-  <dimension ref="A2:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0" zoomScale="99" zoomScaleNormal="100">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="33.95" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="19.42578125" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="19.5" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="19.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6666</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6666</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/control.xlsx
+++ b/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>this is the detail</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="99" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
@@ -549,6 +552,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/control.xlsx
+++ b/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>this is the detail</t>
+  </si>
+  <si>
+    <t>Created on 26-12-2023</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="99" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
@@ -566,6 +569,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>888</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/control.xlsx
+++ b/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Created on 26-12-2023</t>
+  </si>
+  <si>
+    <t>Created on 27-12-2023</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="99" zoomScaleNormal="100">
       <selection activeCell="E7" sqref="E7"/>
@@ -583,6 +586,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>888</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>888</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/control.xlsx
+++ b/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2250" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="4020" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,55 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
-  <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
-    <t>รายละเอียด</t>
-  </si>
-  <si>
-    <t>จำนวนเงิน</t>
-  </si>
-  <si>
-    <t>วันที่</t>
-  </si>
-  <si>
-    <t>ค่าวัสดุการศึกษา</t>
-  </si>
-  <si>
-    <t>Created on25-12-2023</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>this is the detail</t>
   </si>
   <si>
-    <t>Created on 26-12-2023</t>
-  </si>
-  <si>
-    <t>Created on 27-12-2023</t>
+    <t>2023-12-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="18"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -74,7 +55,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -82,39 +63,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,7 +103,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -161,7 +115,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -208,23 +162,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,23 +197,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,189 +349,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="99" zoomScaleNormal="100">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33.95" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="19.42578125" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="19.42578125" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>324</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6666</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="33.95" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6666</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>888</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>888</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>888</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/control.xlsx
+++ b/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -28,10 +28,37 @@
     <t>date</t>
   </si>
   <si>
+    <t>ค่าวัสดุการศึกษา</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
     <t>this is the detail</t>
   </si>
   <si>
     <t>2023-12-28</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2023-12-21</t>
+  </si>
+  <si>
+    <t>หนังสือเรียน</t>
+  </si>
+  <si>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
   </si>
 </sst>
 </file>
@@ -349,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A4" sqref="A4"/>
@@ -371,18 +398,172 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>324</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>155</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>55555</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5555</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2344</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>12345</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>666666</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>12345</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/control.xlsx
+++ b/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A4" sqref="A4"/>
@@ -566,6 +566,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1234</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/control.xlsx
+++ b/control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="4485" yWindow="1515" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
   <si>
+    <t>school</t>
+  </si>
+  <si>
     <t>detail</t>
   </si>
   <si>
@@ -59,6 +62,18 @@
   </si>
   <si>
     <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>โรงเรียนเทพสถิตวิทยา</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
+  </si>
+  <si>
+    <t>โรงเรียนเขาดินพิทยารักษ์</t>
+  </si>
+  <si>
+    <t>Created on 29-12-2023</t>
   </si>
 </sst>
 </file>
@@ -376,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -397,187 +412,224 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>324</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>155</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>324</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>155</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>55555</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>5555</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>2344</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>12345</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
         <v>666666</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
         <v>123</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>12345</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
         <v>1234</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/control.xlsx
+++ b/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>Created on 29-12-2023</t>
+  </si>
+  <si>
+    <t>Created on 01-01-2024</t>
+  </si>
+  <si>
+    <t>วัสดุการศึกษา</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>โรงเรียนบ้านโคกไค</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>โรงเรียนโคกเพชรวิทยาคาร</t>
+  </si>
+  <si>
+    <t>2024-02-03</t>
   </si>
 </sst>
 </file>
@@ -391,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B3" sqref="B3"/>
@@ -632,6 +653,142 @@
         <v>19</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>4500</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>4500</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>4500</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>4500</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>150000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>150000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
